--- a/data/broodstock-mortality.xlsx
+++ b/data/broodstock-mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/roberts-lab/O.lurida_Temperature/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E058A25-AA42-FD46-8C08-6620041A7B00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00318E1-BCB0-B649-B19E-2584782FB348}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{1BB7324F-2934-D14E-84B4-E9BA3D309D4B}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="17540" activeTab="1" xr2:uid="{1BB7324F-2934-D14E-84B4-E9BA3D309D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2467,7 +2468,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2662,19 +2663,19 @@
         <v>33</v>
       </c>
       <c r="AB2">
-        <f>S2/$S$2</f>
+        <f t="shared" ref="AB2:AB7" si="0">S2/$S$2</f>
         <v>1</v>
       </c>
       <c r="AC2">
-        <f>T2/$T$2</f>
+        <f t="shared" ref="AC2:AC7" si="1">T2/$T$2</f>
         <v>1</v>
       </c>
       <c r="AD2">
-        <f>U2/$U$2</f>
+        <f t="shared" ref="AD2:AD7" si="2">U2/$U$2</f>
         <v>1</v>
       </c>
       <c r="AE2">
-        <f>V2/$V$2</f>
+        <f t="shared" ref="AE2:AE7" si="3">V2/$V$2</f>
         <v>1</v>
       </c>
       <c r="AF2" t="s">
@@ -2719,19 +2720,19 @@
         <v>33</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J35" si="0">B3/175</f>
+        <f t="shared" ref="J3:J35" si="4">B3/175</f>
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K35" si="1">C3/168</f>
+        <f t="shared" ref="K3:K35" si="5">C3/168</f>
         <v>0.99404761904761907</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L35" si="2">D3/172</f>
+        <f t="shared" ref="L3:L35" si="6">D3/172</f>
         <v>0.9941860465116279</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M35" si="3">E3/169</f>
+        <f t="shared" ref="M3:M35" si="7">E3/169</f>
         <v>0.99408284023668636</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -2775,19 +2776,19 @@
         <v>33</v>
       </c>
       <c r="AB3">
-        <f>S3/$S$2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC3">
-        <f>T3/$T$2</f>
+        <f t="shared" si="1"/>
         <v>0.99694189602446481</v>
       </c>
       <c r="AD3">
-        <f>U3/$U$2</f>
+        <f t="shared" si="2"/>
         <v>0.99702380952380953</v>
       </c>
       <c r="AE3">
-        <f>V3/$V$2</f>
+        <f t="shared" si="3"/>
         <v>0.99698795180722888</v>
       </c>
       <c r="AF3" t="s">
@@ -2832,19 +2833,19 @@
         <v>33</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98809523809523814</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98837209302325579</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.98816568047337283</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -2888,19 +2889,19 @@
         <v>33</v>
       </c>
       <c r="AB4">
-        <f>S4/$S$2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC4">
-        <f>T4/$T$2</f>
+        <f t="shared" si="1"/>
         <v>0.99388379204892963</v>
       </c>
       <c r="AD4">
-        <f>U4/$U$2</f>
+        <f t="shared" si="2"/>
         <v>0.99404761904761907</v>
       </c>
       <c r="AE4">
-        <f>V4/$V$2</f>
+        <f t="shared" si="3"/>
         <v>0.99397590361445787</v>
       </c>
       <c r="AF4" t="s">
@@ -2945,19 +2946,19 @@
         <v>33</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99428571428571433</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9821428571428571</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98255813953488369</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.98816568047337283</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -3001,19 +3002,19 @@
         <v>33</v>
       </c>
       <c r="AB5">
-        <f>S5/$S$2</f>
+        <f t="shared" si="0"/>
         <v>0.99710982658959535</v>
       </c>
       <c r="AC5">
-        <f>T5/$T$2</f>
+        <f t="shared" si="1"/>
         <v>0.99082568807339455</v>
       </c>
       <c r="AD5">
-        <f>U5/$U$2</f>
+        <f t="shared" si="2"/>
         <v>0.9910714285714286</v>
       </c>
       <c r="AE5">
-        <f>V5/$V$2</f>
+        <f t="shared" si="3"/>
         <v>0.99397590361445787</v>
       </c>
       <c r="AF5" t="s">
@@ -3058,19 +3059,19 @@
         <v>33</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99428571428571433</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9642857142857143</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98255813953488369</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.98816568047337283</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -3114,19 +3115,19 @@
         <v>33</v>
       </c>
       <c r="AB6">
-        <f>S6/$S$2</f>
+        <f t="shared" si="0"/>
         <v>0.99710982658959535</v>
       </c>
       <c r="AC6">
-        <f>T6/$T$2</f>
+        <f t="shared" si="1"/>
         <v>0.98165137614678899</v>
       </c>
       <c r="AD6">
-        <f>U6/$U$2</f>
+        <f t="shared" si="2"/>
         <v>0.9910714285714286</v>
       </c>
       <c r="AE6">
-        <f>V6/$V$2</f>
+        <f t="shared" si="3"/>
         <v>0.99397590361445787</v>
       </c>
       <c r="AF6" t="s">
@@ -3171,19 +3172,19 @@
         <v>33</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98285714285714287</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.97093023255813948</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.97041420118343191</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -3231,15 +3232,15 @@
         <v>0.99132947976878616</v>
       </c>
       <c r="AC7">
-        <f>T7/$T$2</f>
+        <f t="shared" si="1"/>
         <v>0.9785932721712538</v>
       </c>
       <c r="AD7">
-        <f>U7/$U$2</f>
+        <f t="shared" si="2"/>
         <v>0.98511904761904767</v>
       </c>
       <c r="AE7">
-        <f>V7/$V$2</f>
+        <f t="shared" si="3"/>
         <v>0.98493975903614461</v>
       </c>
       <c r="AF7" t="s">
@@ -3284,19 +3285,19 @@
         <v>163</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97714285714285709</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9464285714285714</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.96449704142011838</v>
       </c>
       <c r="N8" s="3">
@@ -3401,35 +3402,35 @@
         <v>159</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.94767441860465118</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.94082840236686394</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N29" si="4">F9/175</f>
+        <f t="shared" ref="N9:N29" si="8">F9/175</f>
         <v>0.97142857142857142</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" ref="O9:O29" si="5">G9/168</f>
+        <f t="shared" ref="O9:O29" si="9">G9/168</f>
         <v>0.94047619047619047</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" ref="P9:P29" si="6">H9/172</f>
+        <f t="shared" ref="P9:P29" si="10">H9/172</f>
         <v>0.94767441860465118</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q29" si="7">I9/169</f>
+        <f t="shared" ref="Q9:Q29" si="11">I9/169</f>
         <v>0.94082840236686394</v>
       </c>
       <c r="S9">
@@ -3457,35 +3458,35 @@
         <v>159</v>
       </c>
       <c r="AB9">
-        <f t="shared" ref="AB9:AB35" si="8">S9/$S$8</f>
+        <f t="shared" ref="AB9:AB35" si="12">S9/$S$8</f>
         <v>0.99415204678362568</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9:AC35" si="9">T9/$T$8</f>
+        <f t="shared" ref="AC9:AC35" si="13">T9/$T$8</f>
         <v>0.99371069182389937</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD35" si="10">U9/$U$8</f>
+        <f t="shared" ref="AD9:AD35" si="14">U9/$U$8</f>
         <v>0.99390243902439024</v>
       </c>
       <c r="AE9">
-        <f t="shared" ref="AE9:AE35" si="11">V9/$V$8</f>
+        <f t="shared" ref="AE9:AE35" si="15">V9/$V$8</f>
         <v>0.97546012269938653</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AF35" si="12">W9/$W$8</f>
+        <f t="shared" ref="AF9:AF29" si="16">W9/$W$8</f>
         <v>0.99415204678362568</v>
       </c>
       <c r="AG9">
-        <f t="shared" ref="AG9:AG35" si="13">X9/$X$8</f>
+        <f t="shared" ref="AG9:AG29" si="17">X9/$X$8</f>
         <v>0.99371069182389937</v>
       </c>
       <c r="AH9">
-        <f t="shared" ref="AH9:AH35" si="14">Y9/$Y$8</f>
+        <f t="shared" ref="AH9:AH29" si="18">Y9/$Y$8</f>
         <v>0.99390243902439024</v>
       </c>
       <c r="AI9">
-        <f t="shared" ref="AI9:AI35" si="15">Z9/$Z$8</f>
+        <f t="shared" ref="AI9:AI29" si="19">Z9/$Z$8</f>
         <v>0.97546012269938653</v>
       </c>
     </row>
@@ -3518,37 +3519,37 @@
         <v>159</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97142857142857142</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.94767441860465118</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94082840236686394</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.96</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.94047619047619047</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.93604651162790697</v>
-      </c>
-      <c r="Q10" s="3">
         <f t="shared" si="7"/>
         <v>0.94082840236686394</v>
       </c>
+      <c r="N10" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.94047619047619047</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="10"/>
+        <v>0.93604651162790697</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="11"/>
+        <v>0.94082840236686394</v>
+      </c>
       <c r="S10">
         <v>170</v>
       </c>
@@ -3574,35 +3575,35 @@
         <v>159</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99415204678362568</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.99390243902439024</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.97546012269938653</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.99371069182389937</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.98170731707317072</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.97546012269938653</v>
       </c>
     </row>
@@ -3647,19 +3648,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.95428571428571429</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.93604651162790697</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.94082840236686394</v>
       </c>
       <c r="S11" t="s">
@@ -3699,19 +3700,19 @@
         <v>33</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.97660818713450293</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.99371069182389937</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.98170731707317072</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.97546012269938653</v>
       </c>
     </row>
@@ -3744,37 +3745,37 @@
         <v>157</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96571428571428575</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.93452380952380953</v>
-      </c>
-      <c r="L12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93604651162790697</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92899408284023666</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.94857142857142862</v>
-      </c>
-      <c r="O12" s="3">
         <f t="shared" si="5"/>
         <v>0.93452380952380953</v>
       </c>
-      <c r="P12" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="6"/>
-        <v>0.91860465116279066</v>
-      </c>
-      <c r="Q12" s="3">
+        <v>0.93604651162790697</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="7"/>
         <v>0.92899408284023666</v>
       </c>
+      <c r="N12" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94857142857142862</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="9"/>
+        <v>0.93452380952380953</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="10"/>
+        <v>0.91860465116279066</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="11"/>
+        <v>0.92899408284023666</v>
+      </c>
       <c r="S12">
         <v>169</v>
       </c>
@@ -3800,35 +3801,35 @@
         <v>157</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98830409356725146</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="9"/>
-        <v>0.98742138364779874</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="10"/>
-        <v>0.98170731707317072</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="11"/>
-        <v>0.96319018404907975</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="12"/>
-        <v>0.9707602339181286</v>
-      </c>
-      <c r="AG12">
         <f t="shared" si="13"/>
         <v>0.98742138364779874</v>
       </c>
+      <c r="AD12">
+        <f t="shared" si="14"/>
+        <v>0.98170731707317072</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="15"/>
+        <v>0.96319018404907975</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="16"/>
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="17"/>
+        <v>0.98742138364779874</v>
+      </c>
       <c r="AH12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.96341463414634143</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.96319018404907975</v>
       </c>
     </row>
@@ -3873,19 +3874,19 @@
         <v>33</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91715976331360949</v>
       </c>
       <c r="S13" t="s">
@@ -3925,19 +3926,19 @@
         <v>33</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.95092024539877296</v>
       </c>
     </row>
@@ -3982,19 +3983,19 @@
         <v>33</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.90116279069767447</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91124260355029585</v>
       </c>
       <c r="S14" t="s">
@@ -4034,19 +4035,19 @@
         <v>33</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.94512195121951215</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.94478527607361962</v>
       </c>
     </row>
@@ -4091,19 +4092,19 @@
         <v>33</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S15" t="s">
@@ -4143,19 +4144,19 @@
         <v>33</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.91463414634146345</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93865030674846628</v>
       </c>
     </row>
@@ -4188,35 +4189,35 @@
         <v>153</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93023255813953487</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92899408284023666</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="4"/>
-        <v>0.93142857142857138</v>
-      </c>
-      <c r="O16" s="3">
         <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
+      <c r="L16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92899408284023666</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93142857142857138</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9285714285714286</v>
+      </c>
       <c r="P16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.85465116279069764</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S16">
@@ -4244,35 +4245,35 @@
         <v>153</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="9"/>
-        <v>0.98113207547169812</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="10"/>
-        <v>0.97560975609756095</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="11"/>
-        <v>0.96319018404907975</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="12"/>
-        <v>0.95321637426900585</v>
-      </c>
-      <c r="AG16">
         <f t="shared" si="13"/>
         <v>0.98113207547169812</v>
       </c>
+      <c r="AD16">
+        <f t="shared" si="14"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="15"/>
+        <v>0.96319018404907975</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="16"/>
+        <v>0.95321637426900585</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="17"/>
+        <v>0.98113207547169812</v>
+      </c>
       <c r="AH16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.89634146341463417</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93865030674846628</v>
       </c>
     </row>
@@ -4317,19 +4318,19 @@
         <v>33</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.85465116279069764</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S17" t="s">
@@ -4369,19 +4370,19 @@
         <v>33</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.89634146341463417</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93865030674846628</v>
       </c>
     </row>
@@ -4426,19 +4427,19 @@
         <v>33</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84883720930232553</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S18" t="s">
@@ -4478,19 +4479,19 @@
         <v>33</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.8902439024390244</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93251533742331283</v>
       </c>
     </row>
@@ -4523,19 +4524,19 @@
         <v>33</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.92441860465116277</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91124260355029585</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -4575,19 +4576,19 @@
         <v>33</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.96951219512195119</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.94478527607361962</v>
       </c>
       <c r="AF19" t="s">
@@ -4644,19 +4645,19 @@
         <v>33</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84883720930232553</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S20" t="s">
@@ -4696,19 +4697,19 @@
         <v>33</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.8902439024390244</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93251533742331283</v>
       </c>
     </row>
@@ -4753,19 +4754,19 @@
         <v>33</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S21" t="s">
@@ -4805,19 +4806,19 @@
         <v>33</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.88414634146341464</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.93251533742331283</v>
       </c>
     </row>
@@ -4850,35 +4851,35 @@
         <v>151</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.92261904761904767</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.92441860465116277</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="3"/>
-        <v>0.90532544378698221</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.92571428571428571</v>
-      </c>
-      <c r="O22" s="3">
         <f t="shared" si="5"/>
         <v>0.92261904761904767</v>
       </c>
+      <c r="L22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92441860465116277</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="7"/>
+        <v>0.90532544378698221</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92571428571428571</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92261904761904767</v>
+      </c>
       <c r="P22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S22">
@@ -4906,35 +4907,35 @@
         <v>151</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="9"/>
-        <v>0.97484276729559749</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="10"/>
-        <v>0.96951219512195119</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="11"/>
-        <v>0.93865030674846628</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="12"/>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="AG22">
         <f t="shared" si="13"/>
         <v>0.97484276729559749</v>
       </c>
+      <c r="AD22">
+        <f t="shared" si="14"/>
+        <v>0.96951219512195119</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="15"/>
+        <v>0.93865030674846628</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="16"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="17"/>
+        <v>0.97484276729559749</v>
+      </c>
       <c r="AH22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.88414634146341464</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.92638036809815949</v>
       </c>
     </row>
@@ -4979,19 +4980,19 @@
         <v>33</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.92</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S23" t="s">
@@ -5031,19 +5032,19 @@
         <v>33</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94152046783625731</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.88414634146341464</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.92638036809815949</v>
       </c>
     </row>
@@ -5076,19 +5077,19 @@
         <v>33</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95428571428571429</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.88165680473372776</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -5128,19 +5129,19 @@
         <v>33</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.97660818713450293</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.91411042944785281</v>
       </c>
       <c r="AF24" t="s">
@@ -5185,19 +5186,19 @@
         <v>33</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.80571428571428572</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.86309523809523814</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.65116279069767447</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.82840236686390534</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -5237,19 +5238,19 @@
         <v>33</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.82456140350877194</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.91194968553459121</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.85889570552147243</v>
       </c>
       <c r="AF25" t="s">
@@ -5294,19 +5295,19 @@
         <v>33</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.78857142857142859</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.61046511627906974</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.8224852071005917</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -5346,19 +5347,19 @@
         <v>33</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.80701754385964908</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.90566037735849059</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.6402439024390244</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.85276073619631898</v>
       </c>
       <c r="AF26" t="s">
@@ -5403,35 +5404,35 @@
         <v>151</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76571428571428568</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.85119047619047616</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57558139534883723</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.8224852071005917</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.89714285714285713</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.82558139534883723</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S27">
@@ -5459,35 +5460,35 @@
         <v>151</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.783625730994152</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89937106918238996</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.60365853658536583</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.85276073619631898</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.91812865497076024</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.96855345911949686</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.86585365853658536</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.92638036809815949</v>
       </c>
     </row>
@@ -5520,19 +5521,19 @@
         <v>33</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.74285714285714288</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.84523809523809523</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55232558139534882</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81656804733727806</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -5572,19 +5573,19 @@
         <v>33</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.76023391812865493</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89308176100628933</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.57926829268292679</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF28" t="s">
@@ -5641,19 +5642,19 @@
         <v>33</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.89714285714285713</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.82558139534883723</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.8875739644970414</v>
       </c>
       <c r="S29" t="s">
@@ -5693,19 +5694,19 @@
         <v>33</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.91812865497076024</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.96855345911949686</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.86585365853658536</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.92024539877300615</v>
       </c>
     </row>
@@ -5738,19 +5739,19 @@
         <v>33</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.52906976744186052</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81656804733727806</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -5790,19 +5791,19 @@
         <v>33</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.88050314465408808</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.55487804878048785</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF30" t="s">
@@ -5847,19 +5848,19 @@
         <v>33</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51744186046511631</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81656804733727806</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -5899,19 +5900,19 @@
         <v>33</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.73099415204678364</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.88050314465408808</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.54268292682926833</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF31" t="s">
@@ -5956,19 +5957,19 @@
         <v>33</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.70857142857142852</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.82738095238095233</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51162790697674421</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81656804733727806</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -6008,19 +6009,19 @@
         <v>33</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.72514619883040932</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.87421383647798745</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.53658536585365857</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF32" t="s">
@@ -6065,19 +6066,19 @@
         <v>33</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.69714285714285718</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.82738095238095233</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51162790697674421</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81065088757396453</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -6117,19 +6118,19 @@
         <v>33</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.87421383647798745</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.53658536585365857</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.8404907975460123</v>
       </c>
       <c r="AF33" t="s">
@@ -6174,19 +6175,19 @@
         <v>33</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.69714285714285718</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.81547619047619047</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.81065088757396453</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -6226,19 +6227,19 @@
         <v>33</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.86163522012578619</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.52439024390243905</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.8404907975460123</v>
       </c>
       <c r="AF34" t="s">
@@ -6283,19 +6284,19 @@
         <v>33</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.69714285714285718</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.8035714285714286</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.80473372781065089</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -6335,19 +6336,19 @@
         <v>33</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.84905660377358494</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.52439024390243905</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.83435582822085885</v>
       </c>
       <c r="AF35" t="s">

--- a/data/broodstock-mortality.xlsx
+++ b/data/broodstock-mortality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/roberts-lab/O.lurida_Temperature/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00318E1-BCB0-B649-B19E-2584782FB348}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C18F4-1EEC-D04F-B59B-990F8954D8CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="17540" activeTab="1" xr2:uid="{1BB7324F-2934-D14E-84B4-E9BA3D309D4B}"/>
+    <workbookView xWindow="15040" yWindow="460" windowWidth="13760" windowHeight="17540" activeTab="1" xr2:uid="{1BB7324F-2934-D14E-84B4-E9BA3D309D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -2465,19 +2465,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1CCF04-606E-594E-A944-8D7B6A190F24}">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:BA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="17" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="35" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +2578,56 @@
       <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43082</v>
       </c>
@@ -2663,7 +2712,7 @@
         <v>33</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB7" si="0">S2/$S$2</f>
+        <f t="shared" ref="AB2:AB6" si="0">S2/$S$2</f>
         <v>1</v>
       </c>
       <c r="AC2">
@@ -2690,8 +2739,72 @@
       <c r="AI2" t="s">
         <v>33</v>
       </c>
+      <c r="AK2">
+        <f>S2/2</f>
+        <v>173</v>
+      </c>
+      <c r="AL2">
+        <f>T2/2</f>
+        <v>163.5</v>
+      </c>
+      <c r="AM2">
+        <f>U2/2</f>
+        <v>168</v>
+      </c>
+      <c r="AN2">
+        <f>V2/2</f>
+        <v>166</v>
+      </c>
+      <c r="AO2">
+        <f>S2/2</f>
+        <v>173</v>
+      </c>
+      <c r="AP2">
+        <f>T2/2</f>
+        <v>163.5</v>
+      </c>
+      <c r="AQ2">
+        <f>U2/2</f>
+        <v>168</v>
+      </c>
+      <c r="AR2">
+        <f>V2/2</f>
+        <v>166</v>
+      </c>
+      <c r="AT2">
+        <f>AK2/$AK$2</f>
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <f>AL2/$AL$2</f>
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <f>AM2/$AM$2</f>
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <f>AN2/$AN$2</f>
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <f>AO2/$AO$2</f>
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <f>AP2/$AP$2</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <f>AQ2/$AQ$2</f>
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <f>AR2/$AR$2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43089</v>
       </c>
@@ -2803,8 +2916,72 @@
       <c r="AI3" t="s">
         <v>33</v>
       </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK7" si="8">S3/2</f>
+        <v>173</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL7" si="9">T3/2</f>
+        <v>163</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM7" si="10">U3/2</f>
+        <v>167.5</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN7" si="11">V3/2</f>
+        <v>165.5</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO7" si="12">S3/2</f>
+        <v>173</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP7" si="13">T3/2</f>
+        <v>163</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ7" si="14">U3/2</f>
+        <v>167.5</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR7" si="15">V3/2</f>
+        <v>165.5</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" ref="AT3:AT35" si="16">AK3/$AK$2</f>
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ref="AU3:AU35" si="17">AL3/$AL$2</f>
+        <v>0.99694189602446481</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3:AV35" si="18">AM3/$AM$2</f>
+        <v>0.99702380952380953</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" ref="AW3:AW35" si="19">AN3/$AN$2</f>
+        <v>0.99698795180722888</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" ref="AX3:AX35" si="20">AO3/$AO$2</f>
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY35" si="21">AP3/$AP$2</f>
+        <v>0.99694189602446481</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3:AZ35" si="22">AQ3/$AQ$2</f>
+        <v>0.99702380952380953</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" ref="BA3:BA35" si="23">AR3/$AR$2</f>
+        <v>0.99698795180722888</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43095</v>
       </c>
@@ -2916,8 +3093,72 @@
       <c r="AI4" t="s">
         <v>33</v>
       </c>
+      <c r="AK4">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="9"/>
+        <v>162.5</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="13"/>
+        <v>162.5</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="17"/>
+        <v>0.99388379204892963</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="18"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="19"/>
+        <v>0.99397590361445787</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="21"/>
+        <v>0.99388379204892963</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="22"/>
+        <v>0.99404761904761907</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="23"/>
+        <v>0.99397590361445787</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43102</v>
       </c>
@@ -3029,8 +3270,72 @@
       <c r="AI5" t="s">
         <v>33</v>
       </c>
+      <c r="AK5">
+        <f t="shared" si="8"/>
+        <v>172.5</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="10"/>
+        <v>166.5</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="12"/>
+        <v>172.5</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="14"/>
+        <v>166.5</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="16"/>
+        <v>0.99710982658959535</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="17"/>
+        <v>0.99082568807339455</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="18"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="19"/>
+        <v>0.99397590361445787</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="20"/>
+        <v>0.99710982658959535</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="21"/>
+        <v>0.99082568807339455</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="22"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="23"/>
+        <v>0.99397590361445787</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43103</v>
       </c>
@@ -3142,8 +3447,72 @@
       <c r="AI6" t="s">
         <v>33</v>
       </c>
+      <c r="AK6">
+        <f t="shared" si="8"/>
+        <v>172.5</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="9"/>
+        <v>160.5</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="10"/>
+        <v>166.5</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="12"/>
+        <v>172.5</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="13"/>
+        <v>160.5</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="14"/>
+        <v>166.5</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="16"/>
+        <v>0.99710982658959535</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="17"/>
+        <v>0.98165137614678899</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="18"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="19"/>
+        <v>0.99397590361445787</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="20"/>
+        <v>0.99710982658959535</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="21"/>
+        <v>0.98165137614678899</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="22"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="23"/>
+        <v>0.99397590361445787</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43116</v>
       </c>
@@ -3255,8 +3624,72 @@
       <c r="AI7" t="s">
         <v>33</v>
       </c>
+      <c r="AK7">
+        <f t="shared" si="8"/>
+        <v>171.5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="10"/>
+        <v>165.5</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="11"/>
+        <v>163.5</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="12"/>
+        <v>171.5</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="14"/>
+        <v>165.5</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="15"/>
+        <v>163.5</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="16"/>
+        <v>0.99132947976878616</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="17"/>
+        <v>0.9785932721712538</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="18"/>
+        <v>0.98511904761904767</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="19"/>
+        <v>0.98493975903614461</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="20"/>
+        <v>0.99132947976878616</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="21"/>
+        <v>0.9785932721712538</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="22"/>
+        <v>0.98511904761904767</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="23"/>
+        <v>0.98493975903614461</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43123</v>
       </c>
@@ -3372,8 +3805,64 @@
         <f>Z8/$Z$8</f>
         <v>1</v>
       </c>
+      <c r="AK8">
+        <v>171</v>
+      </c>
+      <c r="AL8">
+        <v>159</v>
+      </c>
+      <c r="AM8">
+        <v>164</v>
+      </c>
+      <c r="AN8">
+        <v>163</v>
+      </c>
+      <c r="AO8">
+        <v>171</v>
+      </c>
+      <c r="AP8">
+        <v>159</v>
+      </c>
+      <c r="AQ8">
+        <v>164</v>
+      </c>
+      <c r="AR8">
+        <v>163</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="16"/>
+        <v>0.98843930635838151</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="17"/>
+        <v>0.97247706422018354</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="18"/>
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="19"/>
+        <v>0.98192771084337349</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="20"/>
+        <v>0.98843930635838151</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="21"/>
+        <v>0.97247706422018354</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="22"/>
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="23"/>
+        <v>0.98192771084337349</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43136</v>
       </c>
@@ -3418,19 +3907,19 @@
         <v>0.94082840236686394</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N29" si="8">F9/175</f>
+        <f t="shared" ref="N9:N29" si="24">F9/175</f>
         <v>0.97142857142857142</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" ref="O9:O29" si="9">G9/168</f>
+        <f t="shared" ref="O9:O29" si="25">G9/168</f>
         <v>0.94047619047619047</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" ref="P9:P29" si="10">H9/172</f>
+        <f t="shared" ref="P9:P29" si="26">H9/172</f>
         <v>0.94767441860465118</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q29" si="11">I9/169</f>
+        <f t="shared" ref="Q9:Q29" si="27">I9/169</f>
         <v>0.94082840236686394</v>
       </c>
       <c r="S9">
@@ -3458,39 +3947,95 @@
         <v>159</v>
       </c>
       <c r="AB9">
-        <f t="shared" ref="AB9:AB35" si="12">S9/$S$8</f>
+        <f t="shared" ref="AB9:AB35" si="28">S9/$S$8</f>
         <v>0.99415204678362568</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9:AC35" si="13">T9/$T$8</f>
+        <f t="shared" ref="AC9:AC35" si="29">T9/$T$8</f>
         <v>0.99371069182389937</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD35" si="14">U9/$U$8</f>
+        <f t="shared" ref="AD9:AD35" si="30">U9/$U$8</f>
         <v>0.99390243902439024</v>
       </c>
       <c r="AE9">
-        <f t="shared" ref="AE9:AE35" si="15">V9/$V$8</f>
+        <f t="shared" ref="AE9:AE35" si="31">V9/$V$8</f>
         <v>0.97546012269938653</v>
       </c>
       <c r="AF9">
-        <f t="shared" ref="AF9:AF29" si="16">W9/$W$8</f>
+        <f t="shared" ref="AF9:AF29" si="32">W9/$W$8</f>
         <v>0.99415204678362568</v>
       </c>
       <c r="AG9">
-        <f t="shared" ref="AG9:AG29" si="17">X9/$X$8</f>
+        <f t="shared" ref="AG9:AG29" si="33">X9/$X$8</f>
         <v>0.99371069182389937</v>
       </c>
       <c r="AH9">
-        <f t="shared" ref="AH9:AH29" si="18">Y9/$Y$8</f>
+        <f t="shared" ref="AH9:AH29" si="34">Y9/$Y$8</f>
         <v>0.99390243902439024</v>
       </c>
       <c r="AI9">
-        <f t="shared" ref="AI9:AI29" si="19">Z9/$Z$8</f>
+        <f t="shared" ref="AI9:AI29" si="35">Z9/$Z$8</f>
         <v>0.97546012269938653</v>
       </c>
+      <c r="AK9">
+        <v>170</v>
+      </c>
+      <c r="AL9">
+        <v>158</v>
+      </c>
+      <c r="AM9">
+        <v>163</v>
+      </c>
+      <c r="AN9">
+        <v>159</v>
+      </c>
+      <c r="AO9">
+        <v>170</v>
+      </c>
+      <c r="AP9">
+        <v>158</v>
+      </c>
+      <c r="AQ9">
+        <v>163</v>
+      </c>
+      <c r="AR9">
+        <v>159</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="16"/>
+        <v>0.98265895953757221</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="17"/>
+        <v>0.96636085626911317</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="18"/>
+        <v>0.97023809523809523</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="19"/>
+        <v>0.95783132530120485</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="20"/>
+        <v>0.98265895953757221</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="21"/>
+        <v>0.96636085626911317</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="22"/>
+        <v>0.97023809523809523</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="23"/>
+        <v>0.95783132530120485</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43140</v>
       </c>
@@ -3535,19 +4080,19 @@
         <v>0.94082840236686394</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.96</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.93604651162790697</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.94082840236686394</v>
       </c>
       <c r="S10">
@@ -3575,39 +4120,95 @@
         <v>159</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.99415204678362568</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.99390243902439024</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.97546012269938653</v>
       </c>
       <c r="AF10">
+        <f t="shared" si="32"/>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="33"/>
+        <v>0.99371069182389937</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="34"/>
+        <v>0.98170731707317072</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="35"/>
+        <v>0.97546012269938653</v>
+      </c>
+      <c r="AK10">
+        <v>170</v>
+      </c>
+      <c r="AL10">
+        <v>157</v>
+      </c>
+      <c r="AM10">
+        <v>163</v>
+      </c>
+      <c r="AN10">
+        <v>159</v>
+      </c>
+      <c r="AO10">
+        <v>168</v>
+      </c>
+      <c r="AP10">
+        <v>158</v>
+      </c>
+      <c r="AQ10">
+        <v>161</v>
+      </c>
+      <c r="AR10">
+        <v>159</v>
+      </c>
+      <c r="AT10">
         <f t="shared" si="16"/>
-        <v>0.98245614035087714</v>
-      </c>
-      <c r="AG10">
+        <v>0.98265895953757221</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="17"/>
-        <v>0.99371069182389937</v>
-      </c>
-      <c r="AH10">
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="18"/>
-        <v>0.98170731707317072</v>
-      </c>
-      <c r="AI10">
+        <v>0.97023809523809523</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="19"/>
-        <v>0.97546012269938653</v>
+        <v>0.95783132530120485</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="20"/>
+        <v>0.97109826589595372</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="21"/>
+        <v>0.96636085626911317</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="22"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="23"/>
+        <v>0.95783132530120485</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43143</v>
       </c>
@@ -3648,19 +4249,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.95428571428571429</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.94047619047619047</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.93604651162790697</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.94082840236686394</v>
       </c>
       <c r="S11" t="s">
@@ -3700,23 +4301,75 @@
         <v>33</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.97660818713450293</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.99371069182389937</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.98170731707317072</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.97546012269938653</v>
       </c>
+      <c r="AK11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO11">
+        <v>167</v>
+      </c>
+      <c r="AP11">
+        <v>158</v>
+      </c>
+      <c r="AQ11">
+        <v>161</v>
+      </c>
+      <c r="AR11">
+        <v>159</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="20"/>
+        <v>0.96531791907514453</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="21"/>
+        <v>0.96636085626911317</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="22"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="23"/>
+        <v>0.95783132530120485</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43145</v>
       </c>
@@ -3761,19 +4414,19 @@
         <v>0.92899408284023666</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.94857142857142862</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.91860465116279066</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.92899408284023666</v>
       </c>
       <c r="S12">
@@ -3801,39 +4454,95 @@
         <v>157</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.98830409356725146</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.98170731707317072</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.96319018404907975</v>
       </c>
       <c r="AF12">
+        <f t="shared" si="32"/>
+        <v>0.9707602339181286</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="33"/>
+        <v>0.98742138364779874</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="34"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="35"/>
+        <v>0.96319018404907975</v>
+      </c>
+      <c r="AK12">
+        <v>169</v>
+      </c>
+      <c r="AL12">
+        <v>157</v>
+      </c>
+      <c r="AM12">
+        <v>161</v>
+      </c>
+      <c r="AN12">
+        <v>157</v>
+      </c>
+      <c r="AO12">
+        <v>166</v>
+      </c>
+      <c r="AP12">
+        <v>157</v>
+      </c>
+      <c r="AQ12">
+        <v>158</v>
+      </c>
+      <c r="AR12">
+        <v>157</v>
+      </c>
+      <c r="AT12">
         <f t="shared" si="16"/>
-        <v>0.9707602339181286</v>
-      </c>
-      <c r="AG12">
+        <v>0.97687861271676302</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="17"/>
-        <v>0.98742138364779874</v>
-      </c>
-      <c r="AH12">
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="18"/>
-        <v>0.96341463414634143</v>
-      </c>
-      <c r="AI12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="19"/>
-        <v>0.96319018404907975</v>
+        <v>0.94578313253012047</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="20"/>
+        <v>0.95953757225433522</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="21"/>
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="22"/>
+        <v>0.94047619047619047</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="23"/>
+        <v>0.94578313253012047</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43146</v>
       </c>
@@ -3874,19 +4583,19 @@
         <v>33</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.91715976331360949</v>
       </c>
       <c r="S13" t="s">
@@ -3926,23 +4635,75 @@
         <v>33</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.95092024539877296</v>
       </c>
+      <c r="AK13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO13">
+        <v>165</v>
+      </c>
+      <c r="AP13">
+        <v>157</v>
+      </c>
+      <c r="AQ13">
+        <v>156</v>
+      </c>
+      <c r="AR13">
+        <v>155</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="20"/>
+        <v>0.95375722543352603</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="21"/>
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="22"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="23"/>
+        <v>0.9337349397590361</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43147</v>
       </c>
@@ -3983,19 +4744,19 @@
         <v>33</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.90116279069767447</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.91124260355029585</v>
       </c>
       <c r="S14" t="s">
@@ -4035,23 +4796,75 @@
         <v>33</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.94512195121951215</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.94478527607361962</v>
       </c>
+      <c r="AK14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO14">
+        <v>165</v>
+      </c>
+      <c r="AP14">
+        <v>157</v>
+      </c>
+      <c r="AQ14">
+        <v>155</v>
+      </c>
+      <c r="AR14">
+        <v>154</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="20"/>
+        <v>0.95375722543352603</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="21"/>
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="22"/>
+        <v>0.92261904761904767</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="23"/>
+        <v>0.92771084337349397</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43150</v>
       </c>
@@ -4092,19 +4905,19 @@
         <v>33</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.93452380952380953</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.87209302325581395</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S15" t="s">
@@ -4144,23 +4957,75 @@
         <v>33</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.96491228070175439</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.98742138364779874</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.91463414634146345</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.93865030674846628</v>
       </c>
+      <c r="AK15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO15">
+        <v>165</v>
+      </c>
+      <c r="AP15">
+        <v>157</v>
+      </c>
+      <c r="AQ15">
+        <v>150</v>
+      </c>
+      <c r="AR15">
+        <v>153</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="20"/>
+        <v>0.95375722543352603</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="21"/>
+        <v>0.96024464831804279</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="22"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="23"/>
+        <v>0.92168674698795183</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43152</v>
       </c>
@@ -4205,19 +5070,19 @@
         <v>0.92899408284023666</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.93142857142857138</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.85465116279069764</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S16">
@@ -4245,39 +5110,95 @@
         <v>153</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.97560975609756095</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.96319018404907975</v>
       </c>
       <c r="AF16">
+        <f t="shared" si="32"/>
+        <v>0.95321637426900585</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="33"/>
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="34"/>
+        <v>0.89634146341463417</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="35"/>
+        <v>0.93865030674846628</v>
+      </c>
+      <c r="AK16">
+        <v>168</v>
+      </c>
+      <c r="AL16">
+        <v>156</v>
+      </c>
+      <c r="AM16">
+        <v>160</v>
+      </c>
+      <c r="AN16">
+        <v>157</v>
+      </c>
+      <c r="AO16">
+        <v>163</v>
+      </c>
+      <c r="AP16">
+        <v>156</v>
+      </c>
+      <c r="AQ16">
+        <v>147</v>
+      </c>
+      <c r="AR16">
+        <v>153</v>
+      </c>
+      <c r="AT16">
         <f t="shared" si="16"/>
-        <v>0.95321637426900585</v>
-      </c>
-      <c r="AG16">
+        <v>0.97109826589595372</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="17"/>
-        <v>0.98113207547169812</v>
-      </c>
-      <c r="AH16">
+        <v>0.95412844036697253</v>
+      </c>
+      <c r="AV16">
         <f t="shared" si="18"/>
-        <v>0.89634146341463417</v>
-      </c>
-      <c r="AI16">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="19"/>
-        <v>0.93865030674846628</v>
+        <v>0.94578313253012047</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="20"/>
+        <v>0.94219653179190754</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="21"/>
+        <v>0.95412844036697253</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="22"/>
+        <v>0.875</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="23"/>
+        <v>0.92168674698795183</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43153</v>
       </c>
@@ -4318,19 +5239,19 @@
         <v>33</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.85465116279069764</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.90532544378698221</v>
       </c>
       <c r="S17" t="s">
@@ -4370,23 +5291,75 @@
         <v>33</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.89634146341463417</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.93865030674846628</v>
       </c>
+      <c r="AK17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO17">
+        <v>162</v>
+      </c>
+      <c r="AP17">
+        <v>156</v>
+      </c>
+      <c r="AQ17">
+        <v>147</v>
+      </c>
+      <c r="AR17">
+        <v>153</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="20"/>
+        <v>0.93641618497109824</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="21"/>
+        <v>0.95412844036697253</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="22"/>
+        <v>0.875</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="23"/>
+        <v>0.92168674698795183</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43154</v>
       </c>
@@ -4427,19 +5400,19 @@
         <v>33</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.84883720930232553</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S18" t="s">
@@ -4479,23 +5452,75 @@
         <v>33</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.8902439024390244</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.93251533742331283</v>
       </c>
+      <c r="AK18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO18">
+        <v>162</v>
+      </c>
+      <c r="AP18">
+        <v>156</v>
+      </c>
+      <c r="AQ18">
+        <v>146</v>
+      </c>
+      <c r="AR18">
+        <v>152</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="20"/>
+        <v>0.93641618497109824</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="21"/>
+        <v>0.95412844036697253</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="22"/>
+        <v>0.86904761904761907</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="23"/>
+        <v>0.91566265060240959</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43158</v>
       </c>
@@ -4576,19 +5601,19 @@
         <v>33</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.96951219512195119</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.94478527607361962</v>
       </c>
       <c r="AF19" t="s">
@@ -4603,8 +5628,60 @@
       <c r="AI19" t="s">
         <v>33</v>
       </c>
+      <c r="AK19">
+        <v>168</v>
+      </c>
+      <c r="AL19">
+        <v>155</v>
+      </c>
+      <c r="AM19">
+        <v>159</v>
+      </c>
+      <c r="AN19">
+        <v>154</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="16"/>
+        <v>0.97109826589595372</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="17"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="18"/>
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="19"/>
+        <v>0.92771084337349397</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43159</v>
       </c>
@@ -4645,19 +5722,19 @@
         <v>33</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.84883720930232553</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S20" t="s">
@@ -4697,23 +5774,75 @@
         <v>33</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.8902439024390244</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.93251533742331283</v>
       </c>
+      <c r="AK20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO20">
+        <v>162</v>
+      </c>
+      <c r="AP20">
+        <v>155</v>
+      </c>
+      <c r="AQ20">
+        <v>146</v>
+      </c>
+      <c r="AR20">
+        <v>152</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="20"/>
+        <v>0.93641618497109824</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="21"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="22"/>
+        <v>0.86904761904761907</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="23"/>
+        <v>0.91566265060240959</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43166</v>
       </c>
@@ -4754,19 +5883,19 @@
         <v>33</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89940828402366868</v>
       </c>
       <c r="S21" t="s">
@@ -4806,23 +5935,75 @@
         <v>33</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.88414634146341464</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.93251533742331283</v>
       </c>
+      <c r="AK21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO21">
+        <v>162</v>
+      </c>
+      <c r="AP21">
+        <v>155</v>
+      </c>
+      <c r="AQ21">
+        <v>145</v>
+      </c>
+      <c r="AR21">
+        <v>152</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="20"/>
+        <v>0.93641618497109824</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="21"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="22"/>
+        <v>0.86309523809523814</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="23"/>
+        <v>0.91566265060240959</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43168</v>
       </c>
@@ -4867,19 +6048,19 @@
         <v>0.90532544378698221</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S22">
@@ -4907,39 +6088,95 @@
         <v>151</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.98245614035087714</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.96951219512195119</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.93865030674846628</v>
       </c>
       <c r="AF22">
+        <f t="shared" si="32"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="33"/>
+        <v>0.97484276729559749</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="34"/>
+        <v>0.88414634146341464</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="35"/>
+        <v>0.92638036809815949</v>
+      </c>
+      <c r="AK22">
+        <v>168</v>
+      </c>
+      <c r="AL22">
+        <v>155</v>
+      </c>
+      <c r="AM22">
+        <v>159</v>
+      </c>
+      <c r="AN22">
+        <v>153</v>
+      </c>
+      <c r="AO22">
+        <v>162</v>
+      </c>
+      <c r="AP22">
+        <v>155</v>
+      </c>
+      <c r="AQ22">
+        <v>145</v>
+      </c>
+      <c r="AR22">
+        <v>151</v>
+      </c>
+      <c r="AT22">
         <f t="shared" si="16"/>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="AG22">
+        <v>0.97109826589595372</v>
+      </c>
+      <c r="AU22">
         <f t="shared" si="17"/>
-        <v>0.97484276729559749</v>
-      </c>
-      <c r="AH22">
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AV22">
         <f t="shared" si="18"/>
-        <v>0.88414634146341464</v>
-      </c>
-      <c r="AI22">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="19"/>
-        <v>0.92638036809815949</v>
+        <v>0.92168674698795183</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="20"/>
+        <v>0.93641618497109824</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="21"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="22"/>
+        <v>0.86309523809523814</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="23"/>
+        <v>0.90963855421686746</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43171</v>
       </c>
@@ -4980,19 +6217,19 @@
         <v>33</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.92</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.92261904761904767</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.84302325581395354</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S23" t="s">
@@ -5032,23 +6269,75 @@
         <v>33</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.94152046783625731</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.88414634146341464</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.92638036809815949</v>
       </c>
+      <c r="AK23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO23">
+        <v>161</v>
+      </c>
+      <c r="AP23">
+        <v>155</v>
+      </c>
+      <c r="AQ23">
+        <v>145</v>
+      </c>
+      <c r="AR23">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="20"/>
+        <v>0.93063583815028905</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="21"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="22"/>
+        <v>0.86309523809523814</v>
+      </c>
+      <c r="BA23">
+        <f>AR23/$AR$2</f>
+        <v>0.90963855421686746</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43172</v>
       </c>
@@ -5129,19 +6418,19 @@
         <v>33</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.97660818713450293</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.97484276729559749</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.91411042944785281</v>
       </c>
       <c r="AF24" t="s">
@@ -5156,8 +6445,60 @@
       <c r="AI24" t="s">
         <v>33</v>
       </c>
+      <c r="AK24">
+        <v>167</v>
+      </c>
+      <c r="AL24">
+        <v>155</v>
+      </c>
+      <c r="AM24">
+        <v>156</v>
+      </c>
+      <c r="AN24">
+        <v>149</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="16"/>
+        <v>0.96531791907514453</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="17"/>
+        <v>0.94801223241590216</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="18"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="19"/>
+        <v>0.89759036144578308</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43182</v>
       </c>
@@ -5238,19 +6579,19 @@
         <v>33</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.82456140350877194</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.91194968553459121</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.85889570552147243</v>
       </c>
       <c r="AF25" t="s">
@@ -5265,8 +6606,60 @@
       <c r="AI25" t="s">
         <v>33</v>
       </c>
+      <c r="AK25">
+        <v>141</v>
+      </c>
+      <c r="AL25">
+        <v>145</v>
+      </c>
+      <c r="AM25">
+        <v>112</v>
+      </c>
+      <c r="AN25">
+        <v>140</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="16"/>
+        <v>0.81502890173410403</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="17"/>
+        <v>0.88685015290519875</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="18"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="19"/>
+        <v>0.84337349397590367</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43184</v>
       </c>
@@ -5347,19 +6740,19 @@
         <v>33</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.80701754385964908</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.90566037735849059</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.6402439024390244</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.85276073619631898</v>
       </c>
       <c r="AF26" t="s">
@@ -5374,8 +6767,60 @@
       <c r="AI26" t="s">
         <v>33</v>
       </c>
+      <c r="AK26">
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>144</v>
+      </c>
+      <c r="AM26">
+        <v>105</v>
+      </c>
+      <c r="AN26">
+        <v>139</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="16"/>
+        <v>0.79768786127167635</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="17"/>
+        <v>0.88073394495412849</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="18"/>
+        <v>0.625</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="19"/>
+        <v>0.83734939759036142</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43186</v>
       </c>
@@ -5420,19 +6865,19 @@
         <v>0.8224852071005917</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.89714285714285713</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.82558139534883723</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.89349112426035504</v>
       </c>
       <c r="S27">
@@ -5460,39 +6905,95 @@
         <v>151</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.783625730994152</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.89937106918238996</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.60365853658536583</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.85276073619631898</v>
       </c>
       <c r="AF27">
+        <f t="shared" si="32"/>
+        <v>0.91812865497076024</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="33"/>
+        <v>0.96855345911949686</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="34"/>
+        <v>0.86585365853658536</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="35"/>
+        <v>0.92638036809815949</v>
+      </c>
+      <c r="AK27">
+        <v>134</v>
+      </c>
+      <c r="AL27">
+        <v>143</v>
+      </c>
+      <c r="AM27">
+        <v>99</v>
+      </c>
+      <c r="AN27">
+        <v>139</v>
+      </c>
+      <c r="AO27">
+        <v>157</v>
+      </c>
+      <c r="AP27">
+        <v>154</v>
+      </c>
+      <c r="AQ27">
+        <v>142</v>
+      </c>
+      <c r="AR27">
+        <v>151</v>
+      </c>
+      <c r="AT27">
         <f t="shared" si="16"/>
-        <v>0.91812865497076024</v>
-      </c>
-      <c r="AG27">
+        <v>0.77456647398843925</v>
+      </c>
+      <c r="AU27">
         <f t="shared" si="17"/>
-        <v>0.96855345911949686</v>
-      </c>
-      <c r="AH27">
+        <v>0.87461773700305812</v>
+      </c>
+      <c r="AV27">
         <f t="shared" si="18"/>
-        <v>0.86585365853658536</v>
-      </c>
-      <c r="AI27">
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="19"/>
-        <v>0.92638036809815949</v>
+        <v>0.83734939759036142</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="20"/>
+        <v>0.90751445086705207</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="21"/>
+        <v>0.94189602446483178</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="22"/>
+        <v>0.84523809523809523</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="23"/>
+        <v>0.90963855421686746</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43189</v>
       </c>
@@ -5573,19 +7074,19 @@
         <v>33</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.76023391812865493</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.89308176100628933</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.57926829268292679</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF28" t="s">
@@ -5600,8 +7101,60 @@
       <c r="AI28" t="s">
         <v>33</v>
       </c>
+      <c r="AK28">
+        <v>130</v>
+      </c>
+      <c r="AL28">
+        <v>142</v>
+      </c>
+      <c r="AM28">
+        <v>95</v>
+      </c>
+      <c r="AN28">
+        <v>138</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="16"/>
+        <v>0.75144508670520227</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="17"/>
+        <v>0.86850152905198774</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="18"/>
+        <v>0.56547619047619047</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="19"/>
+        <v>0.83132530120481929</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43191</v>
       </c>
@@ -5642,19 +7195,19 @@
         <v>33</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="24"/>
         <v>0.89714285714285713</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="25"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>0.82558139534883723</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>0.8875739644970414</v>
       </c>
       <c r="S29" t="s">
@@ -5694,23 +7247,75 @@
         <v>33</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>0.91812865497076024</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.96855345911949686</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.86585365853658536</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.92024539877300615</v>
       </c>
+      <c r="AK29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO29">
+        <v>157</v>
+      </c>
+      <c r="AP29">
+        <v>154</v>
+      </c>
+      <c r="AQ29">
+        <v>142</v>
+      </c>
+      <c r="AR29">
+        <v>150</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="20"/>
+        <v>0.90751445086705207</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="21"/>
+        <v>0.94189602446483178</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="22"/>
+        <v>0.84523809523809523</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="23"/>
+        <v>0.90361445783132532</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43193</v>
       </c>
@@ -5791,19 +7396,19 @@
         <v>33</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.88050314465408808</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.55487804878048785</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF30" t="s">
@@ -5818,8 +7423,60 @@
       <c r="AI30" t="s">
         <v>33</v>
       </c>
+      <c r="AK30">
+        <v>126</v>
+      </c>
+      <c r="AL30">
+        <v>140</v>
+      </c>
+      <c r="AM30">
+        <v>91</v>
+      </c>
+      <c r="AN30">
+        <v>138</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="16"/>
+        <v>0.72832369942196529</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="17"/>
+        <v>0.85626911314984711</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="18"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="19"/>
+        <v>0.83132530120481929</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43198</v>
       </c>
@@ -5900,19 +7557,19 @@
         <v>33</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.73099415204678364</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.88050314465408808</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.54268292682926833</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF31" t="s">
@@ -5927,8 +7584,60 @@
       <c r="AI31" t="s">
         <v>33</v>
       </c>
+      <c r="AK31">
+        <v>125</v>
+      </c>
+      <c r="AL31">
+        <v>140</v>
+      </c>
+      <c r="AM31">
+        <v>89</v>
+      </c>
+      <c r="AN31">
+        <v>138</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="16"/>
+        <v>0.7225433526011561</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="17"/>
+        <v>0.85626911314984711</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="18"/>
+        <v>0.52976190476190477</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="19"/>
+        <v>0.83132530120481929</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43204</v>
       </c>
@@ -6009,19 +7718,19 @@
         <v>33</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.72514619883040932</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.87421383647798745</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.53658536585365857</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.84662576687116564</v>
       </c>
       <c r="AF32" t="s">
@@ -6036,8 +7745,60 @@
       <c r="AI32" t="s">
         <v>33</v>
       </c>
+      <c r="AK32">
+        <v>124</v>
+      </c>
+      <c r="AL32">
+        <v>139</v>
+      </c>
+      <c r="AM32">
+        <v>88</v>
+      </c>
+      <c r="AN32">
+        <v>138</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="16"/>
+        <v>0.7167630057803468</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="17"/>
+        <v>0.85015290519877673</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="18"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="19"/>
+        <v>0.83132530120481929</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43207</v>
       </c>
@@ -6118,19 +7879,19 @@
         <v>33</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.87421383647798745</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.53658536585365857</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.8404907975460123</v>
       </c>
       <c r="AF33" t="s">
@@ -6145,8 +7906,60 @@
       <c r="AI33" t="s">
         <v>33</v>
       </c>
+      <c r="AK33">
+        <v>122</v>
+      </c>
+      <c r="AL33">
+        <v>139</v>
+      </c>
+      <c r="AM33">
+        <v>88</v>
+      </c>
+      <c r="AN33">
+        <v>137</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="16"/>
+        <v>0.7052023121387283</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="17"/>
+        <v>0.85015290519877673</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="18"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="19"/>
+        <v>0.82530120481927716</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43212</v>
       </c>
@@ -6227,19 +8040,19 @@
         <v>33</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.86163522012578619</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.52439024390243905</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.8404907975460123</v>
       </c>
       <c r="AF34" t="s">
@@ -6254,8 +8067,60 @@
       <c r="AI34" t="s">
         <v>33</v>
       </c>
+      <c r="AK34">
+        <v>122</v>
+      </c>
+      <c r="AL34">
+        <v>137</v>
+      </c>
+      <c r="AM34">
+        <v>86</v>
+      </c>
+      <c r="AN34">
+        <v>137</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="16"/>
+        <v>0.7052023121387283</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="17"/>
+        <v>0.8379204892966361</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="18"/>
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="19"/>
+        <v>0.82530120481927716</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43217</v>
       </c>
@@ -6336,19 +8201,19 @@
         <v>33</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>0.71345029239766078</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.84905660377358494</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.52439024390243905</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.83435582822085885</v>
       </c>
       <c r="AF35" t="s">
@@ -6361,6 +8226,58 @@
         <v>33</v>
       </c>
       <c r="AI35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK35">
+        <v>122</v>
+      </c>
+      <c r="AL35">
+        <v>135</v>
+      </c>
+      <c r="AM35">
+        <v>86</v>
+      </c>
+      <c r="AN35">
+        <v>136</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="16"/>
+        <v>0.7052023121387283</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="17"/>
+        <v>0.82568807339449546</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="18"/>
+        <v>0.51190476190476186</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="19"/>
+        <v>0.81927710843373491</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA35" t="s">
         <v>33</v>
       </c>
     </row>
